--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2867129.806235022</v>
+        <v>2963799.782719397</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>220.0749822528496</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>18.09586056878481</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>95.33023562355962</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>181.5424701523708</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>127.8819313525581</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>73.36938945119061</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>174.0382101334481</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>150.4545708166705</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>63.94516529501773</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>127.7594927339634</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>94.69402002676111</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.451579104186558</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>163.689844124971</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>100.3137235757497</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>97.48562715051612</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1903,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.0358734112042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1779507752275572</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>82.70057996958644</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>98.12640288586343</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>98.89386519651357</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.551215814289</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>165.7739440152988</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>87.22506181228437</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.68656955246495</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3238,16 +3240,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>261.9250689639249</v>
+        <v>180.495510579529</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>79.21950663579828</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>36.15999212057432</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>96.98123462083281</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3836,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247745</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.28741306598055</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3995,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785977</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>31.15371111986639</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1105.19065658335</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>694.2047517937428</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>276.2409436919297</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2284.058289265279</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.995401921708</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1600.226746651594</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1600.226746651594</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1210.087414675782</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396.6060931634762</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="C4" t="n">
-        <v>396.6060931634762</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511404</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>396.6060931634762</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y4" t="n">
-        <v>396.6060931634762</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1760.851696582593</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1391.889179642181</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.623481035431</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.451536646714</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>2147.451536646714</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1310.22335213854</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="C8" t="n">
-        <v>941.2608351981287</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>380.2521765921202</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>373.3066758429167</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>359.3832717815076</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.414268258236</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y8" t="n">
-        <v>1696.823192202662</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9927747426011</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9927747426011</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>351.9927747426011</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>351.9927747426011</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406185</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9927747426011</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9927747426011</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5042,22 +5044,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1530.944718129077</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2064.476622801002</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3044.228895027648</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5066,25 +5068,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.9043113423046</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>260.9043113423046</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>260.9043113423046</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>260.9043113423046</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>260.9043113423046</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5224,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423046</v>
+        <v>1123.1389409875</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,67 +5263,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>685.1208104866375</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1549.639626139992</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N14" t="n">
-        <v>2883.993034926781</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089887</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>432.2000540015823</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5464,22 +5466,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V16" t="n">
-        <v>1062.630648873369</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W16" t="n">
-        <v>1062.630648873369</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X16" t="n">
-        <v>834.6410979753522</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="Y16" t="n">
-        <v>613.848518831822</v>
+        <v>743.1522691167871</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5494,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,25 +5518,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>1923.729615463053</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2903.481887689699</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5552,7 +5554,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5583,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.4168978689405</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>901.3723255570255</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.4168978689405</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,25 +5755,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>753.1470291944245</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M20" t="n">
-        <v>1923.729615463053</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N20" t="n">
-        <v>2903.481887689699</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O20" t="n">
-        <v>3783.446538019154</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5789,7 +5791,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5835,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>657.5961351655762</v>
+        <v>952.9597618327374</v>
       </c>
       <c r="C22" t="n">
-        <v>657.5961351655762</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D22" t="n">
-        <v>507.4794957532405</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E22" t="n">
-        <v>507.4794957532405</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
         <v>192.8867116300491</v>
@@ -5932,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.163717846898</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.477833673724</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.71121824325</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.71121824325</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.026730037363</v>
+        <v>1872.807526741485</v>
       </c>
       <c r="W22" t="n">
-        <v>1288.026730037363</v>
+        <v>1583.390356704524</v>
       </c>
       <c r="X22" t="n">
-        <v>1060.037179139346</v>
+        <v>1355.400805806507</v>
       </c>
       <c r="Y22" t="n">
-        <v>839.244599995816</v>
+        <v>1134.608226662977</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,43 +5974,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>444.6760255082862</v>
+        <v>416.1091927888612</v>
       </c>
       <c r="K23" t="n">
-        <v>1099.399357643586</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L23" t="n">
-        <v>1963.91817329694</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>2497.450077968865</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N23" t="n">
-        <v>3044.228895027647</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6023,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789527</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.8431224204016</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9069394924948</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D25" t="n">
-        <v>633.9069394924948</v>
+        <v>342.5917067033769</v>
       </c>
       <c r="E25" t="n">
-        <v>485.9938459101016</v>
+        <v>194.6786131209838</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6169,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1574.934331561267</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1574.934331561267</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>1320.24984335538</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W25" t="n">
-        <v>1030.832673318419</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X25" t="n">
-        <v>802.8431224204016</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y25" t="n">
-        <v>802.8431224204016</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M26" t="n">
-        <v>2536.15366264131</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N26" t="n">
-        <v>3515.905934867957</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,16 +6335,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.8310435707792</v>
+        <v>3182.297804570347</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8948606428723</v>
+        <v>3182.297804570347</v>
       </c>
       <c r="D28" t="n">
-        <v>241.7782212305366</v>
+        <v>3182.297804570347</v>
       </c>
       <c r="E28" t="n">
-        <v>241.7782212305366</v>
+        <v>3182.297804570347</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>3182.297804570347</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>4364.599222816072</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>4075.496355941716</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>3820.811867735829</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>3531.394697698868</v>
       </c>
       <c r="X28" t="n">
-        <v>901.3723255570255</v>
+        <v>3363.946269400587</v>
       </c>
       <c r="Y28" t="n">
-        <v>680.5797464134954</v>
+        <v>3363.946269400587</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6457,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1014.851249206415</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M29" t="n">
-        <v>2047.844055175504</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N29" t="n">
-        <v>3027.596327402151</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6543,10 +6545,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3628.450831365612</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.514648437706</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D31" t="n">
-        <v>3309.39800902537</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>3161.484915442977</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4739.984480447534</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4548.298596274361</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>4548.298596274361</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>4548.298596274361</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>4548.298596274361</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>4258.8814262374</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>4030.891875339382</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>3810.099296195852</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1404.50704106094</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2383.057343890768</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3362.809616117415</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996752</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6768,13 +6770,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.8431224204016</v>
+        <v>3457.818741637454</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9069394924948</v>
+        <v>3457.818741637454</v>
       </c>
       <c r="D34" t="n">
-        <v>633.9069394924948</v>
+        <v>3307.702102225119</v>
       </c>
       <c r="E34" t="n">
-        <v>485.9938459101016</v>
+        <v>3307.702102225119</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1038984121913</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.890966501056</v>
+        <v>4297.262971372191</v>
       </c>
       <c r="V34" t="n">
-        <v>1288.206478295169</v>
+        <v>4042.578483166304</v>
       </c>
       <c r="W34" t="n">
-        <v>1023.635701563932</v>
+        <v>3860.259785611224</v>
       </c>
       <c r="X34" t="n">
-        <v>1023.635701563932</v>
+        <v>3860.259785611224</v>
       </c>
       <c r="Y34" t="n">
-        <v>802.8431224204016</v>
+        <v>3639.467206467694</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,52 +6937,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M35" t="n">
-        <v>2782.232616025903</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N35" t="n">
-        <v>3329.011433084685</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O35" t="n">
-        <v>3831.983903964022</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>855.6340846510827</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C37" t="n">
-        <v>686.6979017231758</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D37" t="n">
-        <v>536.5812623108401</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E37" t="n">
-        <v>388.668168728447</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7126,19 +7128,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1453.060509258584</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.643339221624</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>935.6537883236062</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>855.6340846510827</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551631</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001595</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7175,49 +7177,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L38" t="n">
-        <v>1797.117834600129</v>
+        <v>1617.66584484778</v>
       </c>
       <c r="M38" t="n">
-        <v>2330.649739272054</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330836</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7242,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3478.2965971072</v>
+        <v>301.022461942538</v>
       </c>
       <c r="C40" t="n">
-        <v>3309.360414179293</v>
+        <v>132.0862790146311</v>
       </c>
       <c r="D40" t="n">
-        <v>3309.360414179293</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>3161.4473205969</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
-        <v>4466.454649746775</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U40" t="n">
-        <v>4177.351782872418</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V40" t="n">
-        <v>4177.351782872418</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W40" t="n">
-        <v>3887.934612835457</v>
+        <v>931.4530568143252</v>
       </c>
       <c r="X40" t="n">
-        <v>3659.94506193744</v>
+        <v>703.4635059163079</v>
       </c>
       <c r="Y40" t="n">
-        <v>3659.94506193744</v>
+        <v>482.6709267727778</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7390,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,25 +7411,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1650.184003770974</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2628.734306600803</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N41" t="n">
-        <v>3175.513123659585</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3678.485594538922</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4391.840681985868</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
         <v>487.9678785494859</v>
@@ -7488,13 +7490,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>637.1336314069201</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>637.1336314069201</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>487.0169919945844</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7582,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1385.724257814702</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1385.724257814702</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1096.307087777741</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>868.3175368797235</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>647.5249577361934</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7636,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001591</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N44" t="n">
-        <v>3070.887536710053</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.852187039507</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
-        <v>4345.626553396685</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7716,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,25 +7727,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3481.560883867702</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="C46" t="n">
-        <v>3312.624700939795</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="D46" t="n">
-        <v>3162.50806152746</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="E46" t="n">
-        <v>3014.594967945066</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="F46" t="n">
-        <v>3014.594967945066</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="G46" t="n">
-        <v>3014.594967945066</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="H46" t="n">
-        <v>3014.594967945066</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763412</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J46" t="n">
         <v>2962.391923210348</v>
@@ -7831,25 +7833,25 @@
         <v>4688.221265177249</v>
       </c>
       <c r="S46" t="n">
-        <v>4688.221265177249</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T46" t="n">
-        <v>4466.454649746775</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U46" t="n">
-        <v>4177.351782872418</v>
+        <v>4091.801543878048</v>
       </c>
       <c r="V46" t="n">
-        <v>3922.667294666531</v>
+        <v>3837.117055672161</v>
       </c>
       <c r="W46" t="n">
-        <v>3891.198899595959</v>
+        <v>3547.6998856352</v>
       </c>
       <c r="X46" t="n">
-        <v>3663.209348697942</v>
+        <v>3319.710334737183</v>
       </c>
       <c r="Y46" t="n">
-        <v>3663.209348697942</v>
+        <v>3098.917755593653</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>142.1686942807564</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704161</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>96.13798426930725</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9164,28 +9166,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>288.7672650676785</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>136.2499899971294</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,13 +9418,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>83.1672211894936</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>161.8544041422892</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,19 +9886,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>57.67224444723729</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>338.5992815305709</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>14.4538689594055</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>34.13957882094024</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,25 +10828,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>411.0304280899001</v>
+        <v>229.7657919764164</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,22 +11065,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>353.7642348290873</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>79.70465870845291</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>126.3855966773246</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>177.3804010777507</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.335964134057178</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>151.8239197480783</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>121.0990262015787</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.54877994089063</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.75420189481977</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>169.4370633542416</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>47.29464513706782</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>120.6550840796556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.2807643676483</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>59.93571137373831</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>80.02175928634347</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24856,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>51.24558311758238</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.5979293726661</v>
+        <v>106.027487757062</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25312,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>21.59472895491405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>139.3651467162965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>112.455480897638</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>48.43981340209844</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>169.5445671159567</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25803,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>105.0742887270152</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>255.3692872167246</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083306</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26316,43 @@
         <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
+        <v>655184.9483635224</v>
+      </c>
+      <c r="F2" t="n">
+        <v>655184.9483635226</v>
+      </c>
+      <c r="G2" t="n">
         <v>655184.9483635225</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>655184.9483635228</v>
+      </c>
+      <c r="I2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="J2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="K2" t="n">
+        <v>655184.9483635224</v>
+      </c>
+      <c r="L2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="M2" t="n">
         <v>655184.9483635223</v>
       </c>
-      <c r="G2" t="n">
-        <v>655184.9483635226</v>
-      </c>
-      <c r="H2" t="n">
-        <v>655184.9483635226</v>
-      </c>
-      <c r="I2" t="n">
-        <v>655184.9483635226</v>
-      </c>
-      <c r="J2" t="n">
-        <v>655184.9483635226</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>655184.9483635225</v>
       </c>
-      <c r="L2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>655184.9483635224</v>
-      </c>
-      <c r="N2" t="n">
-        <v>655184.9483635218</v>
-      </c>
-      <c r="O2" t="n">
-        <v>655184.948363523</v>
       </c>
       <c r="P2" t="n">
         <v>655184.9483635225</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26427,16 +26429,16 @@
         <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
@@ -26448,13 +26450,13 @@
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709188</v>
@@ -26473,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26488,28 +26490,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187674.0935323503</v>
+        <v>-187674.0935323502</v>
       </c>
       <c r="C6" t="n">
-        <v>402293.7856821942</v>
+        <v>402293.7856821943</v>
       </c>
       <c r="D6" t="n">
         <v>402293.7856821943</v>
       </c>
       <c r="E6" t="n">
-        <v>-190195.5918806896</v>
+        <v>-190195.5918806898</v>
       </c>
       <c r="F6" t="n">
-        <v>537181.8221127169</v>
+        <v>537181.8221127172</v>
       </c>
       <c r="G6" t="n">
-        <v>537181.8221127172</v>
+        <v>537181.8221127171</v>
       </c>
       <c r="H6" t="n">
-        <v>537181.8221127172</v>
+        <v>537181.8221127173</v>
       </c>
       <c r="I6" t="n">
-        <v>537181.8221127172</v>
+        <v>537181.8221127171</v>
       </c>
       <c r="J6" t="n">
-        <v>360758.6029201241</v>
+        <v>360758.6029201242</v>
       </c>
       <c r="K6" t="n">
+        <v>537181.822112717</v>
+      </c>
+      <c r="L6" t="n">
         <v>537181.8221127171</v>
       </c>
-      <c r="L6" t="n">
-        <v>537181.8221127169</v>
-      </c>
       <c r="M6" t="n">
-        <v>407539.5072737721</v>
+        <v>407539.5072737719</v>
       </c>
       <c r="N6" t="n">
-        <v>537181.8221127164</v>
+        <v>537181.8221127171</v>
       </c>
       <c r="O6" t="n">
-        <v>537181.8221127175</v>
+        <v>537181.822112717</v>
       </c>
       <c r="P6" t="n">
         <v>537181.8221127171</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>103.8477905115076</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>233.1283069395045</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>71.9795666354913</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>44.16718523666634</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>254.8519103109224</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>308.5609806210712</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>50.9968953246362</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>173.4682019476867</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>322.2927733610359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>17.66155528896788</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>131.015635362276</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30040,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32321,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33260,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>597.7588086730885</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35647,25 +35649,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>404.7279243224421</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>604.1909851575264</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35884,28 +35886,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>796.8202659558976</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36121,10 +36123,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>473.4412765525299</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36136,13 +36138,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>481.9292074088655</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>352.6414051110018</v>
+        <v>323.786018525724</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,7 +36372,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36379,7 +36381,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36595,7 +36597,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36604,19 +36606,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>565.7252453354564</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>568.6923583622648</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>846.65228241879</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37069,10 +37071,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>470.0439833517377</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,16 +37083,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>432.9015650403121</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>866.6205424822323</v>
+        <v>685.3559063687484</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>906.0660702419985</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>330.4989635121724</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>559.3763608778471</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>377.1799014810441</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2963799.782719397</v>
+        <v>2958078.17075151</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>220.0749822528496</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>88.11531479094472</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>144.7456473197374</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>95.33023562355962</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>127.8819313525581</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>167.8500543470334</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>117.1560086992562</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.46389722690827</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>70.33431843622128</v>
       </c>
       <c r="H8" t="n">
-        <v>150.4545708166705</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>94.69402002676111</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634812</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.451579104186558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>10.86992633787726</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>57.22631784668835</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.48562715051612</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>58.69387841119184</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>111.9187566128689</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>82.70057996958644</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>98.12640288586343</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>165.7739440152988</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>87.22506181228437</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>204.6272483195518</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>180.495510579529</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>36.15999212057432</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>181.1375494785986</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>216.2486892180377</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>42.64088645074789</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>181.1375494785977</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1490.978909181595</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C2" t="n">
-        <v>1490.978909181595</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>1490.978909181595</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>1105.19065658335</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>694.2047517937428</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>276.2409436919297</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2608.14372254252</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2389.509055514583</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2389.509055514583</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2058.446168171012</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1705.677512900898</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1332.211754639818</v>
       </c>
       <c r="Y2" t="n">
-        <v>1490.978909181595</v>
+        <v>942.0724226640064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673418</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,22 +4439,22 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.1723320447962</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="C4" t="n">
-        <v>150.2361491168893</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="D4" t="n">
-        <v>150.2361491168893</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="E4" t="n">
-        <v>150.2361491168893</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>150.2361491168893</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2296.397404421438</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4664,31 +4664,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>172.2823845468859</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>766.0404291903644</v>
+        <v>1648.990120852572</v>
       </c>
       <c r="C8" t="n">
-        <v>766.0404291903644</v>
+        <v>1280.02760391216</v>
       </c>
       <c r="D8" t="n">
-        <v>766.0404291903644</v>
+        <v>921.7619053054095</v>
       </c>
       <c r="E8" t="n">
-        <v>380.2521765921202</v>
+        <v>535.9736527071652</v>
       </c>
       <c r="F8" t="n">
-        <v>373.3066758429167</v>
+        <v>124.9877479175577</v>
       </c>
       <c r="G8" t="n">
-        <v>359.3832717815076</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.779601230298</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1152.640269254486</v>
+        <v>2035.589960916693</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>195.2500315327868</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W10" t="n">
-        <v>195.2500315327868</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5120,19 +5120,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>719.7238607267858</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>550.7876777988789</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>400.6710383865432</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>252.75794480415</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>685.1208104866375</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1549.639626139992</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2528.189928969821</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3507.942201196468</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.5038042865474</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C16" t="n">
-        <v>392.5676213586405</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1898.539104643402</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1898.539104643402</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1676.772489212929</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814702</v>
+        <v>1676.772489212929</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.039769608815</v>
+        <v>1422.088001007042</v>
       </c>
       <c r="W16" t="n">
-        <v>841.6225995718539</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="X16" t="n">
-        <v>841.6225995718539</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.1522691167871</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5594,10 +5594,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.8067350374723</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="C19" t="n">
-        <v>506.8067350374723</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
         <v>192.8867116300491</v>
@@ -5715,10 +5715,10 @@
         <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>506.8067350374723</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.8067350374723</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5752,25 +5752,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>753.1470291944245</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1617.665844847779</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M20" t="n">
-        <v>2151.197749519704</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3130.950021746351</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5791,7 +5791,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.9597618327374</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1872.807526741485</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1583.390356704524</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1355.400805806507</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1134.608226662977</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>416.1091927888612</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1070.832524924161</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.86673817257</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844494</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,13 +6068,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>492.7083461157126</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>492.7083461157126</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>342.5917067033769</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>194.6786131209838</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894825</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.3568109459524</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6208,46 +6208,46 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1002.806306216375</v>
+        <v>818.2062848686778</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.840519464783</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294612</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,16 +6335,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3182.297804570347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>3182.297804570347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>3182.297804570347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>3182.297804570347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>3182.297804570347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.365838246546</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>4364.599222816072</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>4075.496355941716</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>3820.811867735829</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>3531.394697698868</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>3363.946269400587</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>3363.946269400587</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1014.851249206415</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L29" t="n">
-        <v>1465.885462454824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>1999.417367126749</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>481.6968904858347</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C31" t="n">
-        <v>393.5907674431232</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307875</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1749.649275882934</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1460.546409008577</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1205.86192080269</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>916.4447507657294</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>688.4551998677121</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858347</v>
+        <v>688.4551998677121</v>
       </c>
     </row>
     <row r="32">
@@ -6715,13 +6715,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3457.818741637454</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>3457.818741637454</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>3307.702102225119</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>3307.702102225119</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4586.365838246547</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>4297.262971372191</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>4042.578483166304</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>3860.259785611224</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>3860.259785611224</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3639.467206467694</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6943,10 +6943,10 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1732.058578925876</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2265.590483597801</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
         <v>2812.369300656583</v>
@@ -6964,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7174,25 +7174,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1617.66584484778</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,16 +7283,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>301.022461942538</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>132.0862790146311</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.657581931529</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1475.554715057173</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1220.870226851286</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>931.4530568143252</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>703.4635059163079</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y40" t="n">
-        <v>482.6709267727778</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7411,25 +7411,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>1770.231306037952</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577531</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,13 +7490,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,67 +7633,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551623</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001591</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1339.447785386688</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2317.998088216516</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3297.750360443163</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7727,25 +7727,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2917.269290763413</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C46" t="n">
-        <v>2917.269290763413</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>2917.269290763413</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>2917.269290763413</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>4496.535381004075</v>
+        <v>1823.441406386729</v>
       </c>
       <c r="T46" t="n">
-        <v>4274.768765573601</v>
+        <v>1601.674790956255</v>
       </c>
       <c r="U46" t="n">
-        <v>4091.801543878048</v>
+        <v>1312.571924081898</v>
       </c>
       <c r="V46" t="n">
-        <v>3837.117055672161</v>
+        <v>1057.887435876012</v>
       </c>
       <c r="W46" t="n">
-        <v>3547.6998856352</v>
+        <v>768.470265839051</v>
       </c>
       <c r="X46" t="n">
-        <v>3319.710334737183</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="Y46" t="n">
-        <v>3098.917755593653</v>
+        <v>540.4807149410336</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>67.53663776704161</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>136.2499899971294</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.9990175570114</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277304</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>219.3344627260154</v>
+        <v>201.9664098701128</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>231.5010718068643</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>176.2173930448433</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>229.7657919764164</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>353.7642348290873</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>103.7862464855152</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.3804010777507</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>134.551121685054</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>31.70583482335898</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>121.0990262015787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>121.1381017707455</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>113.7908987761683</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>169.4370633542416</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>47.29464513706782</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>59.93571137373831</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.02175928634347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>14.92170095661737</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>106.027487757062</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>21.59472895491405</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>112.455480897638</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>105.0742887270143</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>2.335964134057093</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>147.128138880694</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>105.0742887270152</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755427.9998083306</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
         <v>655184.9483635224</v>
       </c>
       <c r="F2" t="n">
-        <v>655184.9483635226</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="G2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="H2" t="n">
-        <v>655184.9483635228</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="I2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635218</v>
       </c>
       <c r="J2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="K2" t="n">
         <v>655184.9483635224</v>
       </c>
       <c r="L2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="M2" t="n">
         <v>655184.9483635223</v>
       </c>
       <c r="N2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="O2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="P2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635223</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709181</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26490,13 +26490,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187674.0935323502</v>
+        <v>-187674.0935323504</v>
       </c>
       <c r="C6" t="n">
         <v>402293.7856821943</v>
       </c>
       <c r="D6" t="n">
-        <v>402293.7856821943</v>
+        <v>402293.7856821942</v>
       </c>
       <c r="E6" t="n">
-        <v>-190195.5918806898</v>
+        <v>-190867.5467829476</v>
       </c>
       <c r="F6" t="n">
-        <v>537181.8221127172</v>
+        <v>536509.8672104588</v>
       </c>
       <c r="G6" t="n">
-        <v>537181.8221127171</v>
+        <v>536509.867210459</v>
       </c>
       <c r="H6" t="n">
-        <v>537181.8221127173</v>
+        <v>536509.867210459</v>
       </c>
       <c r="I6" t="n">
-        <v>537181.8221127171</v>
+        <v>536509.8672104586</v>
       </c>
       <c r="J6" t="n">
-        <v>360758.6029201242</v>
+        <v>360086.6480178658</v>
       </c>
       <c r="K6" t="n">
-        <v>537181.822112717</v>
+        <v>536509.8672104591</v>
       </c>
       <c r="L6" t="n">
-        <v>537181.8221127171</v>
+        <v>536509.867210459</v>
       </c>
       <c r="M6" t="n">
-        <v>407539.5072737719</v>
+        <v>406867.5523715141</v>
       </c>
       <c r="N6" t="n">
-        <v>537181.8221127171</v>
+        <v>536509.8672104591</v>
       </c>
       <c r="O6" t="n">
-        <v>537181.822112717</v>
+        <v>536509.867210459</v>
       </c>
       <c r="P6" t="n">
-        <v>537181.8221127171</v>
+        <v>536509.867210459</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>103.8477905115076</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>86.30039801802681</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>3.869825698474983</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>71.9795666354913</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>254.8519103109224</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>83.37411316125593</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.15379355979471</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>120.50172456543</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>343.4498515845737</v>
       </c>
       <c r="H8" t="n">
-        <v>173.4682019476867</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>131.015635362276</v>
+        <v>96.92615468724696</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.429578708524912e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1.302329278901041e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32323,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>404.7279243224421</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>473.4412765525299</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>323.786018525724</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200623</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>556.5257492814159</v>
+        <v>539.1576964255132</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>568.6923583622648</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37092,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,13 +37311,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>631.8075074371754</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>728.5192284577547</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>685.3559063687484</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0660702419985</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>559.3763608778471</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2958078.17075151</v>
+        <v>2961483.661875959</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>88.11531479094472</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>11.98934863366274</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>144.7456473197374</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>25.25292425643924</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>148.3681250208872</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>167.8500543470334</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>117.1560086992562</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>165.206662592364</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>70.33431843622128</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>56.58072854101205</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634812</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873213</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10.86992633787726</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.921725653454</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>63.10551370434634</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22631784668835</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.69387841119184</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>112.3514341322545</v>
       </c>
       <c r="T22" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>181.1375494785986</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>27.19292662790622</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>181.1375494785986</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>204.6272483195518</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>158.392225062832</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>59.90320919298897</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.2486892180377</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>71.67037196991714</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>42.64088645074789</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555.4725825998845</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2608.14372254252</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2389.509055514583</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="U2" t="n">
-        <v>2389.509055514583</v>
+        <v>2431.276852490997</v>
       </c>
       <c r="V2" t="n">
-        <v>2058.446168171012</v>
+        <v>2100.213965147427</v>
       </c>
       <c r="W2" t="n">
-        <v>1705.677512900898</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X2" t="n">
-        <v>1332.211754639818</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y2" t="n">
-        <v>942.0724226640064</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673418</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036444</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0636002298164</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>517.0636002298164</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644251</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>79.45098611979802</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036444</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>378.1446555862785</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2296.397404421438</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1965.334517077867</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1965.334517077867</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1591.868758816787</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>764.7444956504003</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.1723320447962</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1723320447962</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>319.1723320447962</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>319.1723320447962</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>172.2823845468859</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.990120852572</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C8" t="n">
-        <v>1280.02760391216</v>
+        <v>1003.993406038095</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7619053054095</v>
+        <v>645.7277074313447</v>
       </c>
       <c r="E8" t="n">
-        <v>535.9736527071652</v>
+        <v>478.852290671381</v>
       </c>
       <c r="F8" t="n">
-        <v>124.9877479175577</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2035.589960916693</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>2035.589960916693</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635869</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5080,7 +5080,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,31 +5141,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>719.7238607267858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>550.7876777988789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>400.6710383865432</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>252.75794480415</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>901.3723255570255</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>901.3723255570255</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5281,16 +5281,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>730.2297869963112</v>
+        <v>623.0432015923082</v>
       </c>
       <c r="C16" t="n">
-        <v>561.2936040684043</v>
+        <v>454.1070186644013</v>
       </c>
       <c r="D16" t="n">
-        <v>411.1769646560685</v>
+        <v>454.1070186644013</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>306.1939250820081</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>159.3039775840978</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>159.3039775840978</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1898.539104643402</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1898.539104643402</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1676.772489212929</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1676.772489212929</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V16" t="n">
-        <v>1422.088001007042</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W16" t="n">
-        <v>1132.670830970081</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="X16" t="n">
-        <v>1132.670830970081</v>
+        <v>1025.484245566078</v>
       </c>
       <c r="Y16" t="n">
-        <v>911.8782518265509</v>
+        <v>804.6916664225479</v>
       </c>
     </row>
     <row r="17">
@@ -5521,13 +5521,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5585,22 +5585,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5706,19 +5706,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>619.8559841413803</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.0634049978502</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5758,13 +5758,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5834,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1842.857169001416</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1621.090553570943</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1331.987686696586</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1077.303198490699</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>787.8860284537387</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>559.8964775557214</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>339.1038984121913</v>
       </c>
     </row>
     <row r="23">
@@ -5995,16 +5995,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107236</v>
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,13 +6068,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>818.2062848686778</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1682.725100522032</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M26" t="n">
         <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1928.875863450252</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1707.109248019779</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1418.006381145422</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1163.321892939535</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>873.9047229025747</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,73 +6439,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972662</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
         <v>2760.816196754296</v>
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902952</v>
@@ -6566,16 +6566,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1749.649275882934</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1460.546409008577</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1205.86192080269</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>916.4447507657294</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>688.4551998677121</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>688.4551998677121</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,46 +6706,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6803,16 +6803,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6891,19 +6891,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6949,13 +6949,13 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>361.822894557956</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7125,22 +7125,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>543.4713593881957</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7256,16 +7256,16 @@
         <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>156.0693265625247</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>263.2638710736754</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,19 +7633,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>540.4807149410336</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C46" t="n">
-        <v>540.4807149410336</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>167.9553495695228</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1823.441406386729</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1601.674790956255</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1312.571924081898</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V46" t="n">
-        <v>1057.887435876012</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W46" t="n">
-        <v>768.470265839051</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X46" t="n">
-        <v>540.4807149410336</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y46" t="n">
-        <v>540.4807149410336</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9169,16 +9169,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9406,16 +9406,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277304</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9655,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>170.1140909277296</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>201.9664098701128</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4822118493993</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400261</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10597,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>176.2173930448432</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>258.621178561693</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>134.551121685054</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23466,7 +23466,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>81.64950120997445</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.70583482335898</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.1381017707455</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>77.41759119918741</v>
       </c>
       <c r="T22" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>162.5760987035354</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>105.0742887270143</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>162.5760987035357</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.0742887270143</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>14.92170095661737</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>60.19242828926278</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>84.8518057213318</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.335964134057093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911108</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>147.128138880694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083306</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>655184.9483635224</v>
@@ -26328,34 +26328,34 @@
         <v>655184.9483635222</v>
       </c>
       <c r="G2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="H2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="I2" t="n">
-        <v>655184.9483635218</v>
+        <v>655184.9483635221</v>
       </c>
       <c r="J2" t="n">
         <v>655184.9483635222</v>
       </c>
       <c r="K2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="L2" t="n">
         <v>655184.9483635224</v>
       </c>
       <c r="M2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="N2" t="n">
         <v>655184.9483635223</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>655184.9483635221</v>
+      </c>
+      <c r="P2" t="n">
         <v>655184.9483635224</v>
-      </c>
-      <c r="O2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="P2" t="n">
-        <v>655184.9483635223</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26429,7 +26429,7 @@
         <v>21619.60799709184</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709181</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709187</v>
@@ -26441,25 +26441,25 @@
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709181</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26490,28 +26490,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="O5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187674.0935323504</v>
+        <v>-187674.0935323499</v>
       </c>
       <c r="C6" t="n">
         <v>402293.7856821943</v>
       </c>
       <c r="D6" t="n">
-        <v>402293.7856821942</v>
+        <v>402293.7856821943</v>
       </c>
       <c r="E6" t="n">
-        <v>-190867.5467829476</v>
+        <v>-190262.7873709157</v>
       </c>
       <c r="F6" t="n">
-        <v>536509.8672104588</v>
+        <v>537114.6266224909</v>
       </c>
       <c r="G6" t="n">
-        <v>536509.867210459</v>
+        <v>537114.6266224909</v>
       </c>
       <c r="H6" t="n">
-        <v>536509.867210459</v>
+        <v>537114.6266224909</v>
       </c>
       <c r="I6" t="n">
-        <v>536509.8672104586</v>
+        <v>537114.6266224908</v>
       </c>
       <c r="J6" t="n">
-        <v>360086.6480178658</v>
+        <v>360691.407429898</v>
       </c>
       <c r="K6" t="n">
-        <v>536509.8672104591</v>
+        <v>537114.6266224908</v>
       </c>
       <c r="L6" t="n">
-        <v>536509.867210459</v>
+        <v>537114.6266224912</v>
       </c>
       <c r="M6" t="n">
-        <v>406867.5523715141</v>
+        <v>407472.3117835463</v>
       </c>
       <c r="N6" t="n">
-        <v>536509.8672104591</v>
+        <v>537114.6266224911</v>
       </c>
       <c r="O6" t="n">
-        <v>536509.867210459</v>
+        <v>537114.6266224908</v>
       </c>
       <c r="P6" t="n">
-        <v>536509.867210459</v>
+        <v>537114.6266224912</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,10 +26986,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.225657850375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>86.30039801802681</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.458971723995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>3.869825698474983</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>130.9179645853559</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>216.9047667501203</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>83.37411316125593</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.15379355979471</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>216.7237074798977</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>343.4498515845737</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>89.85323410555712</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>96.92615468724696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-7.794735482867122e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.302329278901041e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32095,10 +32095,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -34216,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34459,13 +34459,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35649,7 +35649,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35743,10 +35743,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -36126,7 +36126,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200623</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>568.8760771471015</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>539.1576964255132</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>751.0723262417313</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36676,7 +36676,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282451</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37317,16 +37317,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>728.5192284577547</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>766.6741794499121</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38107,13 +38107,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
